--- a/02-intermediate/159-hands-on-05.xlsx
+++ b/02-intermediate/159-hands-on-05.xlsx
@@ -15,9 +15,6 @@
     <sheet name="sales" sheetId="67" r:id="rId1"/>
     <sheet name="sales (2)" sheetId="68" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'sales (2)'!$A:$A,'sales (2)'!$1:$1</definedName>
-  </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -7256,9 +7253,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1" headings="1" gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="81" fitToWidth="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="87" fitToWidth="2" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LMCLEOD&amp;C&amp;G&amp;R&amp;P of &amp;N</oddHeader>
     <oddFooter>&amp;L&amp;Z&amp;F
